--- a/Doc/数据库表结构说明.xlsx
+++ b/Doc/数据库表结构说明.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rock\source\repos\HouseSelection\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0EA0011C-879D-4581-929B-4BAB5845BC8A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BB0DF863-9D68-414D-9BDB-D1A506E366D2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{FEA1F325-EEC8-47FE-82EB-7325F5028A40}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" activeTab="6" xr2:uid="{FEA1F325-EEC8-47FE-82EB-7325F5028A40}"/>
   </bookViews>
   <sheets>
     <sheet name="地区" sheetId="9" r:id="rId1"/>
@@ -19,9 +19,10 @@
     <sheet name="项目" sheetId="3" r:id="rId4"/>
     <sheet name="认购人参与项目关系" sheetId="4" r:id="rId5"/>
     <sheet name="居室" sheetId="5" r:id="rId6"/>
-    <sheet name="房源信息" sheetId="6" r:id="rId7"/>
-    <sheet name="项目分组" sheetId="7" r:id="rId8"/>
-    <sheet name="摇号结果" sheetId="8" r:id="rId9"/>
+    <sheet name="房源分组" sheetId="10" r:id="rId7"/>
+    <sheet name="房源信息" sheetId="6" r:id="rId8"/>
+    <sheet name="项目分组" sheetId="7" r:id="rId9"/>
+    <sheet name="摇号结果" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="113">
   <si>
     <t>表名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -233,10 +234,6 @@
     <t>SerialNumber</t>
   </si>
   <si>
-    <t>Group</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Building</t>
   </si>
   <si>
@@ -431,6 +428,22 @@
   </si>
   <si>
     <t>城市名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HouseGroup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HouseGroup_ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -567,14 +580,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -895,7 +908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1393F8AB-CA1B-4B8E-8B47-9BDF08CCD9D6}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -910,14 +923,14 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="B1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -966,7 +979,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>38</v>
@@ -975,7 +988,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="3"/>
       <c r="G4" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -983,7 +996,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>38</v>
@@ -992,7 +1005,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1001,6 +1014,203 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7810AD4-5867-4F65-9747-6A4E5AF72F58}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="A1:G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F4" location="项目分组!A1" display="ProjectGroup_ID" xr:uid="{7BD6AC0D-7212-40A0-82B2-D9DC01EB67CE}"/>
+    <hyperlink ref="F5" location="认购人参与项目关系!A1" display="SubscriberProjectMapping_ID" xr:uid="{1E5E7E8C-4590-4A15-BC5A-1C741AD74B77}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1026,14 +1236,14 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1218,16 +1428,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -1235,10 +1445,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="5" t="s">
@@ -1246,7 +1456,7 @@
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1282,14 +1492,14 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1345,7 +1555,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>40</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -1408,16 +1618,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -1425,10 +1635,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="5" t="s">
@@ -1436,7 +1646,7 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1475,14 +1685,14 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1584,16 +1794,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -1601,10 +1811,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5" t="s">
@@ -1612,7 +1822,7 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1620,18 +1830,18 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1670,14 +1880,14 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1733,7 +1943,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>40</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -1752,7 +1962,7 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -1764,16 +1974,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -1781,10 +1991,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5" t="s">
@@ -1792,7 +2002,7 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1831,14 +2041,14 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1904,16 +2114,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -1921,10 +2131,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="5" t="s">
@@ -1932,7 +2142,7 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1946,11 +2156,166 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816ABE42-E1F6-4A05-B119-24E0099DA616}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F4" location="项目!A1" display="Project_ID" xr:uid="{1B5FF223-58FF-4146-991E-B842F8CAD00C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CA8260-0DDF-48A3-86E1-5089904B98B0}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1960,7 +2325,7 @@
     <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1968,14 +2333,14 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="B1" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -2031,7 +2396,7 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -2060,16 +2425,18 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="3"/>
+      <c r="F6" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="G6" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -2077,7 +2444,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>19</v>
@@ -2088,7 +2455,7 @@
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2096,7 +2463,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>17</v>
@@ -2105,7 +2472,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="3"/>
       <c r="G8" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -2113,7 +2480,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>17</v>
@@ -2122,7 +2489,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="3"/>
       <c r="G9" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -2130,7 +2497,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>38</v>
@@ -2139,7 +2506,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="3"/>
       <c r="G10" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -2147,18 +2514,18 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="7" t="s">
-        <v>69</v>
+      <c r="F11" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2166,7 +2533,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>38</v>
@@ -2175,7 +2542,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="3"/>
       <c r="G12" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -2183,7 +2550,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>38</v>
@@ -2192,7 +2559,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="3"/>
       <c r="G13" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2200,16 +2567,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="3"/>
       <c r="G14" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -2217,16 +2584,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="3"/>
       <c r="G15" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -2234,16 +2601,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="3"/>
       <c r="G16" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -2251,16 +2618,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="3"/>
       <c r="G17" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -2268,16 +2635,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -2285,10 +2652,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="5" t="s">
@@ -2296,7 +2663,7 @@
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2307,13 +2674,14 @@
   <hyperlinks>
     <hyperlink ref="F4" location="项目!A1" display="Project_ID" xr:uid="{9963EF2D-179E-491F-8D20-AAE7C4FBB527}"/>
     <hyperlink ref="F11" location="居室!A1" display="RoomType_ID" xr:uid="{47821033-B7E2-487D-8FA0-8399B5F318ED}"/>
+    <hyperlink ref="F6" location="房源分组!A1" display="HouseGroup_ID" xr:uid="{B50DE885-11AE-4DD2-9EC5-6F0CC699858B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4F1516-0F0D-4807-8CBE-8A6B6DB5739C}">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -2336,14 +2704,14 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="B1" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -2399,7 +2767,7 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -2411,7 +2779,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>23</v>
@@ -2420,7 +2788,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="3"/>
       <c r="G5" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2428,16 +2796,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -2445,10 +2813,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5" t="s">
@@ -2456,7 +2824,7 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2470,200 +2838,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7810AD4-5867-4F65-9747-6A4E5AF72F58}">
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="F4" location="项目分组!A1" display="ProjectGroup_ID" xr:uid="{7BD6AC0D-7212-40A0-82B2-D9DC01EB67CE}"/>
-    <hyperlink ref="F5" location="认购人参与项目关系!A1" display="SubscriberProjectMapping_ID" xr:uid="{1E5E7E8C-4590-4A15-BC5A-1C741AD74B77}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Doc/数据库表结构说明.xlsx
+++ b/Doc/数据库表结构说明.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rock\source\repos\HouseSelection\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BB0DF863-9D68-414D-9BDB-D1A506E366D2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D4E75742-D083-45F5-8783-92790FEED5F5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" activeTab="6" xr2:uid="{FEA1F325-EEC8-47FE-82EB-7325F5028A40}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" activeTab="8" xr2:uid="{FEA1F325-EEC8-47FE-82EB-7325F5028A40}"/>
   </bookViews>
   <sheets>
     <sheet name="地区" sheetId="9" r:id="rId1"/>
@@ -20,9 +20,10 @@
     <sheet name="认购人参与项目关系" sheetId="4" r:id="rId5"/>
     <sheet name="居室" sheetId="5" r:id="rId6"/>
     <sheet name="房源分组" sheetId="10" r:id="rId7"/>
-    <sheet name="房源信息" sheetId="6" r:id="rId8"/>
-    <sheet name="项目分组" sheetId="7" r:id="rId9"/>
-    <sheet name="摇号结果" sheetId="8" r:id="rId10"/>
+    <sheet name="楼盘信息" sheetId="11" r:id="rId8"/>
+    <sheet name="房源信息" sheetId="6" r:id="rId9"/>
+    <sheet name="项目分组" sheetId="7" r:id="rId10"/>
+    <sheet name="摇号结果" sheetId="8" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="120">
   <si>
     <t>表名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -444,6 +445,33 @@
   </si>
   <si>
     <t>HouseGroup_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HouseEstateID</t>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HouseEstate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR(200)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼盘名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HouseEstate_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼盘ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1019,6 +1047,165 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4F1516-0F0D-4807-8CBE-8A6B6DB5739C}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F4" location="项目!A1" display="Project_ID" xr:uid="{43AA46B3-6ADD-40C5-B938-DB9B058C358C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7810AD4-5867-4F65-9747-6A4E5AF72F58}">
   <dimension ref="A1:G9"/>
   <sheetViews>
@@ -2159,8 +2346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816ABE42-E1F6-4A05-B119-24E0099DA616}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2307,15 +2494,173 @@
     <hyperlink ref="F4" location="项目!A1" display="Project_ID" xr:uid="{1B5FF223-58FF-4146-991E-B842F8CAD00C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CA8260-0DDF-48A3-86E1-5089904B98B0}">
-  <dimension ref="A1:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED63455-A287-40A3-B2B0-FD736394383F}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F4" location="项目!A1" display="Project_ID" xr:uid="{C7E69DA5-5DCB-47FC-AB9F-E5E8389CBDC7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CA8260-0DDF-48A3-86E1-5089904B98B0}">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2666,6 +3011,25 @@
         <v>84</v>
       </c>
     </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:G1"/>
@@ -2675,165 +3039,7 @@
     <hyperlink ref="F4" location="项目!A1" display="Project_ID" xr:uid="{9963EF2D-179E-491F-8D20-AAE7C4FBB527}"/>
     <hyperlink ref="F11" location="居室!A1" display="RoomType_ID" xr:uid="{47821033-B7E2-487D-8FA0-8399B5F318ED}"/>
     <hyperlink ref="F6" location="房源分组!A1" display="HouseGroup_ID" xr:uid="{B50DE885-11AE-4DD2-9EC5-6F0CC699858B}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4F1516-0F0D-4807-8CBE-8A6B6DB5739C}">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="F4" location="项目!A1" display="Project_ID" xr:uid="{43AA46B3-6ADD-40C5-B938-DB9B058C358C}"/>
+    <hyperlink ref="F20" location="楼盘信息!A1" display="HouseEstate_ID" xr:uid="{D8E9C009-E08E-42CF-9BE1-251F300D48AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Doc/数据库表结构说明.xlsx
+++ b/Doc/数据库表结构说明.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rock\source\repos\HouseSelection\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D4E75742-D083-45F5-8783-92790FEED5F5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F8CD952A-3A65-4418-875E-F36B0933D6E6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" activeTab="8" xr2:uid="{FEA1F325-EEC8-47FE-82EB-7325F5028A40}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" activeTab="11" xr2:uid="{FEA1F325-EEC8-47FE-82EB-7325F5028A40}"/>
   </bookViews>
   <sheets>
     <sheet name="地区" sheetId="9" r:id="rId1"/>
     <sheet name="认购人" sheetId="1" r:id="rId2"/>
     <sheet name="认购人家庭成员" sheetId="2" r:id="rId3"/>
-    <sheet name="项目" sheetId="3" r:id="rId4"/>
-    <sheet name="认购人参与项目关系" sheetId="4" r:id="rId5"/>
-    <sheet name="居室" sheetId="5" r:id="rId6"/>
-    <sheet name="房源分组" sheetId="10" r:id="rId7"/>
-    <sheet name="楼盘信息" sheetId="11" r:id="rId8"/>
-    <sheet name="房源信息" sheetId="6" r:id="rId9"/>
-    <sheet name="项目分组" sheetId="7" r:id="rId10"/>
+    <sheet name="项目分组" sheetId="7" r:id="rId4"/>
+    <sheet name="项目" sheetId="3" r:id="rId5"/>
+    <sheet name="认购人参与项目关系" sheetId="4" r:id="rId6"/>
+    <sheet name="居室" sheetId="5" r:id="rId7"/>
+    <sheet name="房源分组" sheetId="10" r:id="rId8"/>
+    <sheet name="楼盘信息" sheetId="11" r:id="rId9"/>
+    <sheet name="房源信息" sheetId="6" r:id="rId10"/>
     <sheet name="摇号结果" sheetId="8" r:id="rId11"/>
+    <sheet name="选房弃选记录" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="145">
   <si>
     <t>表名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -472,6 +473,96 @@
   </si>
   <si>
     <t>楼盘ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subscriber_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>认购人ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HouseID</t>
+  </si>
+  <si>
+    <t>SelectTime</t>
+  </si>
+  <si>
+    <t>SelectImageUrl1</t>
+  </si>
+  <si>
+    <t>SelectImageUrl2</t>
+  </si>
+  <si>
+    <t>SelectImageUrl3</t>
+  </si>
+  <si>
+    <t>IsAbandon</t>
+  </si>
+  <si>
+    <t>AbandonTime</t>
+  </si>
+  <si>
+    <t>AbandonImageUrl1</t>
+  </si>
+  <si>
+    <t>AbandonImageUrl2</t>
+  </si>
+  <si>
+    <t>AbandonImageUrl3</t>
+  </si>
+  <si>
+    <t>BIT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>House_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>房源ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选购时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选购确认照片地址1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选购确认照片地址2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选购确认照片地址3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否弃选</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弃选时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弃选确认照片地址1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弃选确认照片地址2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弃选确认照片地址3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1047,21 +1138,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4F1516-0F0D-4807-8CBE-8A6B6DB5739C}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CA8260-0DDF-48A3-86E1-5089904B98B0}">
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1070,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -1144,16 +1235,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="3"/>
       <c r="G5" s="4" t="s">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1161,16 +1252,18 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>81</v>
+        <v>111</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="3" t="s">
-        <v>82</v>
+      <c r="F6" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -1178,18 +1271,264 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="3" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1198,7 +1537,11 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F4" location="项目!A1" display="Project_ID" xr:uid="{43AA46B3-6ADD-40C5-B938-DB9B058C358C}"/>
+    <hyperlink ref="F4" location="项目!A1" display="Project_ID" xr:uid="{9963EF2D-179E-491F-8D20-AAE7C4FBB527}"/>
+    <hyperlink ref="F11" location="居室!A1" display="RoomType_ID" xr:uid="{47821033-B7E2-487D-8FA0-8399B5F318ED}"/>
+    <hyperlink ref="F6" location="房源分组!A1" display="HouseGroup_ID" xr:uid="{B50DE885-11AE-4DD2-9EC5-6F0CC699858B}"/>
+    <hyperlink ref="F20" location="楼盘信息!A1" display="HouseEstate_ID" xr:uid="{D8E9C009-E08E-42CF-9BE1-251F300D48AB}"/>
+    <hyperlink ref="F21" location="认购人!A1" display="Subscriber_ID" xr:uid="{FA742B32-EA6E-4773-A268-8D275290C52A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1398,6 +1741,313 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07078727-5368-4B24-9C83-E3A5AA787F32}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1850,6 +2500,165 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4F1516-0F0D-4807-8CBE-8A6B6DB5739C}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F4" location="项目!A1" display="Project_ID" xr:uid="{43AA46B3-6ADD-40C5-B938-DB9B058C358C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0893C854-8CB0-4481-94C7-2D1BD881E5E1}">
   <dimension ref="A1:G9"/>
   <sheetViews>
@@ -2044,7 +2853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0278F26C-D911-401B-9E03-8C94A59B49C4}">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -2206,7 +3015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A9E669F-A9C0-4C14-81EF-1572AC5A6460}">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -2342,7 +3151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816ABE42-E1F6-4A05-B119-24E0099DA616}">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -2498,7 +3307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED63455-A287-40A3-B2B0-FD736394383F}">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -2653,395 +3462,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CA8260-0DDF-48A3-86E1-5089904B98B0}">
-  <dimension ref="A1:G20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>15</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>17</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>18</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="F4" location="项目!A1" display="Project_ID" xr:uid="{9963EF2D-179E-491F-8D20-AAE7C4FBB527}"/>
-    <hyperlink ref="F11" location="居室!A1" display="RoomType_ID" xr:uid="{47821033-B7E2-487D-8FA0-8399B5F318ED}"/>
-    <hyperlink ref="F6" location="房源分组!A1" display="HouseGroup_ID" xr:uid="{B50DE885-11AE-4DD2-9EC5-6F0CC699858B}"/>
-    <hyperlink ref="F20" location="楼盘信息!A1" display="HouseEstate_ID" xr:uid="{D8E9C009-E08E-42CF-9BE1-251F300D48AB}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Doc/数据库表结构说明.xlsx
+++ b/Doc/数据库表结构说明.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rock\source\repos\HouseSelection\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F8CD952A-3A65-4418-875E-F36B0933D6E6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{28D2EA0C-F63C-4021-89DC-097B262783DF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" activeTab="11" xr2:uid="{FEA1F325-EEC8-47FE-82EB-7325F5028A40}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" firstSheet="6" activeTab="13" xr2:uid="{FEA1F325-EEC8-47FE-82EB-7325F5028A40}"/>
   </bookViews>
   <sheets>
     <sheet name="地区" sheetId="9" r:id="rId1"/>
@@ -25,6 +25,8 @@
     <sheet name="房源信息" sheetId="6" r:id="rId10"/>
     <sheet name="摇号结果" sheetId="8" r:id="rId11"/>
     <sheet name="选房弃选记录" sheetId="12" r:id="rId12"/>
+    <sheet name="选房时间段表" sheetId="13" r:id="rId13"/>
+    <sheet name="电话通知记录表" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="171">
   <si>
     <t>表名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -563,6 +565,100 @@
   </si>
   <si>
     <t>弃选确认照片地址3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShakingNumberResultID</t>
+  </si>
+  <si>
+    <t>StartTime</t>
+  </si>
+  <si>
+    <t>EndTime</t>
+  </si>
+  <si>
+    <t>ShakingNumberResult_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>摇号结果ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选房开始时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选房结束时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HouseSelectPeriod</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HouseSelectionRecord</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoticeTime</t>
+  </si>
+  <si>
+    <t>IsError</t>
+  </si>
+  <si>
+    <t>IsContacted</t>
+  </si>
+  <si>
+    <t>IsCallBack</t>
+  </si>
+  <si>
+    <t>IsMessageSend</t>
+  </si>
+  <si>
+    <t>BIT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知次数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息是否有误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否已经联系</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为回拨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信是否发送</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResultType</t>
+  </si>
+  <si>
+    <t>ErrorType</t>
+  </si>
+  <si>
+    <t>通知时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知结果(1-有效电话;2-无效电话;3-未接通)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效原因(1-号码有误;2-非本人)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TelephoneNoticeRecord</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1141,9 +1237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CA8260-0DDF-48A3-86E1-5089904B98B0}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1550,10 +1644,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7810AD4-5867-4F65-9747-6A4E5AF72F58}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="A1:G9"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1699,34 +1793,119 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>81</v>
+        <v>154</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="F8" s="3"/>
+      <c r="G8" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5" t="s">
+      <c r="D14" s="4"/>
+      <c r="E14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3" t="s">
+      <c r="F14" s="4"/>
+      <c r="G14" s="3" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1746,10 +1925,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07078727-5368-4B24-9C83-E3A5AA787F32}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1768,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -1830,7 +2009,7 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -1849,7 +2028,7 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="7" t="s">
         <v>134</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -1868,7 +2047,7 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -2042,11 +2221,422 @@
         <v>144</v>
       </c>
     </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:G1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F4" location="项目!A1" display="Project_ID" xr:uid="{D08C10E9-7932-4716-9172-F7E78D0920F3}"/>
+    <hyperlink ref="F5" location="房源信息!A1" display="House_ID" xr:uid="{FDF3D431-2858-4959-91D2-4BEBE44BF1F2}"/>
+    <hyperlink ref="F6" location="认购人!A1" display="Subscriber_ID" xr:uid="{22AE9934-1943-486B-B294-1E8595B40F8C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57A15C4-00F7-4245-99DC-353A41057D7D}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="A1:G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F4" location="摇号结果!A1" display="ShakingNumberResult_ID" xr:uid="{1B24577A-C952-46E6-B947-1D897DCA7D02}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F562E7-12E3-427E-8875-A118080E72C8}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F4" location="摇号结果!A1" display="ShakingNumberResult_ID" xr:uid="{46FB9908-0860-4C2C-BE0B-1E4B3FEF5DBF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Doc/数据库表结构说明.xlsx
+++ b/Doc/数据库表结构说明.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rock\source\repos\HouseSelection\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{28D2EA0C-F63C-4021-89DC-097B262783DF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DC0B6D89-BBED-4572-8A9A-5BCD66C9DB37}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" firstSheet="6" activeTab="13" xr2:uid="{FEA1F325-EEC8-47FE-82EB-7325F5028A40}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" firstSheet="10" activeTab="17" xr2:uid="{FEA1F325-EEC8-47FE-82EB-7325F5028A40}"/>
   </bookViews>
   <sheets>
     <sheet name="地区" sheetId="9" r:id="rId1"/>
@@ -27,6 +27,11 @@
     <sheet name="选房弃选记录" sheetId="12" r:id="rId12"/>
     <sheet name="选房时间段表" sheetId="13" r:id="rId13"/>
     <sheet name="电话通知记录表" sheetId="14" r:id="rId14"/>
+    <sheet name="前台账号表" sheetId="15" r:id="rId15"/>
+    <sheet name="前台账号登陆记录表" sheetId="16" r:id="rId16"/>
+    <sheet name="后台账号表" sheetId="17" r:id="rId17"/>
+    <sheet name="后台账号登陆记录表" sheetId="18" r:id="rId18"/>
+    <sheet name="应用账号表" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="201">
   <si>
     <t>表名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -378,287 +383,402 @@
     <t>SubscriberProjectMappingID</t>
   </si>
   <si>
+    <t>VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>ProjectGroup_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubscriberProjectMapping_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>摇号编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>摇号顺序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AreaID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Area_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地区ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CityName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地区名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HouseGroup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HouseGroup_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HouseEstateID</t>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HouseEstate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR(200)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼盘名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HouseEstate_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼盘ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subscriber_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>认购人ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HouseID</t>
+  </si>
+  <si>
+    <t>SelectTime</t>
+  </si>
+  <si>
+    <t>SelectImageUrl1</t>
+  </si>
+  <si>
+    <t>SelectImageUrl2</t>
+  </si>
+  <si>
+    <t>SelectImageUrl3</t>
+  </si>
+  <si>
+    <t>IsAbandon</t>
+  </si>
+  <si>
+    <t>AbandonTime</t>
+  </si>
+  <si>
+    <t>AbandonImageUrl1</t>
+  </si>
+  <si>
+    <t>AbandonImageUrl2</t>
+  </si>
+  <si>
+    <t>AbandonImageUrl3</t>
+  </si>
+  <si>
+    <t>BIT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>House_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>房源ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选购时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选购确认照片地址1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选购确认照片地址2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选购确认照片地址3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否弃选</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弃选时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弃选确认照片地址1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弃选确认照片地址2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弃选确认照片地址3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShakingNumberResultID</t>
+  </si>
+  <si>
+    <t>StartTime</t>
+  </si>
+  <si>
+    <t>EndTime</t>
+  </si>
+  <si>
+    <t>ShakingNumberResult_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>摇号结果ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选房开始时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选房结束时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HouseSelectPeriod</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HouseSelectionRecord</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoticeTime</t>
+  </si>
+  <si>
+    <t>IsError</t>
+  </si>
+  <si>
+    <t>IsContacted</t>
+  </si>
+  <si>
+    <t>IsCallBack</t>
+  </si>
+  <si>
+    <t>IsMessageSend</t>
+  </si>
+  <si>
+    <t>BIT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知次数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息是否有误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否已经联系</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为回拨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信是否发送</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResultType</t>
+  </si>
+  <si>
+    <t>ErrorType</t>
+  </si>
+  <si>
+    <t>通知时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知结果(1-有效电话;2-无效电话;3-未接通)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效原因(1-号码有误;2-非本人)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TelephoneNoticeRecord</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShakingNumber</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>ShakingNumberSequance</t>
-  </si>
-  <si>
-    <t>ShakingNumber</t>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-  </si>
-  <si>
-    <t>ProjectGroup_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubscriberProjectMapping_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>摇号编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>摇号顺序号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AreaID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Area_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>地区ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CityName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>地区名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HouseGroup</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProjectID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GroupID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HouseGroup_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HouseEstateID</t>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HouseEstate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVARCHAR(200)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>楼盘名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HouseEstate_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>楼盘ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Subscriber_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>认购人ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HouseID</t>
-  </si>
-  <si>
-    <t>SelectTime</t>
-  </si>
-  <si>
-    <t>SelectImageUrl1</t>
-  </si>
-  <si>
-    <t>SelectImageUrl2</t>
-  </si>
-  <si>
-    <t>SelectImageUrl3</t>
-  </si>
-  <si>
-    <t>IsAbandon</t>
-  </si>
-  <si>
-    <t>AbandonTime</t>
-  </si>
-  <si>
-    <t>AbandonImageUrl1</t>
-  </si>
-  <si>
-    <t>AbandonImageUrl2</t>
-  </si>
-  <si>
-    <t>AbandonImageUrl3</t>
-  </si>
-  <si>
-    <t>BIT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>House_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>房源ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选购时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选购确认照片地址1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选购确认照片地址2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选购确认照片地址3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否弃选</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弃选时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弃选确认照片地址1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弃选确认照片地址2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弃选确认照片地址3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShakingNumberResultID</t>
-  </si>
-  <si>
-    <t>StartTime</t>
-  </si>
-  <si>
-    <t>EndTime</t>
-  </si>
-  <si>
-    <t>ShakingNumberResult_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>摇号结果ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选房开始时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选房结束时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HouseSelectPeriod</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HouseSelectionRecord</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NoticeTime</t>
-  </si>
-  <si>
-    <t>IsError</t>
-  </si>
-  <si>
-    <t>IsContacted</t>
-  </si>
-  <si>
-    <t>IsCallBack</t>
-  </si>
-  <si>
-    <t>IsMessageSend</t>
-  </si>
-  <si>
-    <t>BIT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通知次数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息是否有误</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否已经联系</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否为回拨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>短信是否发送</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResultType</t>
-  </si>
-  <si>
-    <t>ErrorType</t>
-  </si>
-  <si>
-    <t>通知时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通知结果(1-有效电话;2-无效电话;3-未接通)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无效原因(1-号码有误;2-非本人)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TelephoneNoticeRecord</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Area</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>FrontEndAccount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台账号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台密码(MD5加密)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR(100)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FrontEndAccountID</t>
+  </si>
+  <si>
+    <t>LoginTime</t>
+  </si>
+  <si>
+    <t>LoginIP</t>
+  </si>
+  <si>
+    <t>前台账号ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆IP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FrontEndAccount_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FrontEndAccountLoginRecord</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackEndAccount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台账号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台密码(MD5加密)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackEndAccountLoginRecord</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackEndAccountID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台账号ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackEndAccount_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>APPID</t>
+  </si>
+  <si>
+    <t>APPSECRET</t>
+  </si>
+  <si>
+    <t>应用ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用密钥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApplicationAccount</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1139,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -1194,7 +1314,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>38</v>
@@ -1203,7 +1323,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="3"/>
       <c r="G4" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1211,7 +1331,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>38</v>
@@ -1220,7 +1340,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1346,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>64</v>
@@ -1354,7 +1474,7 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>69</v>
@@ -1592,18 +1712,18 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1614,15 +1734,15 @@
         <v>35</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1647,7 +1767,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1729,7 +1849,7 @@
       <c r="D4" s="5"/>
       <c r="E4" s="4"/>
       <c r="F4" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>51</v>
@@ -1748,7 +1868,7 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>90</v>
@@ -1759,7 +1879,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>94</v>
+        <v>170</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>17</v>
@@ -1768,7 +1888,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="3"/>
       <c r="G6" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1776,16 +1896,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>95</v>
+        <v>169</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="3"/>
       <c r="G7" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1793,7 +1913,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>17</v>
@@ -1802,7 +1922,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="3"/>
       <c r="G8" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1810,16 +1930,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="3"/>
       <c r="G9" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1827,16 +1947,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="3"/>
       <c r="G10" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1844,16 +1964,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="3"/>
       <c r="G11" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1861,16 +1981,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="3"/>
       <c r="G12" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1947,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -2021,7 +2141,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>17</v>
@@ -2029,10 +2149,10 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2059,7 +2179,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>81</v>
@@ -2068,7 +2188,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="3"/>
       <c r="G7" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -2076,10 +2196,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5" t="s">
@@ -2087,7 +2207,7 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -2095,10 +2215,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="5" t="s">
@@ -2106,7 +2226,7 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -2114,10 +2234,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="5" t="s">
@@ -2125,7 +2245,7 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -2133,16 +2253,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -2150,7 +2270,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>81</v>
@@ -2161,7 +2281,7 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -2169,10 +2289,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="5" t="s">
@@ -2180,7 +2300,7 @@
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -2188,10 +2308,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="5" t="s">
@@ -2199,7 +2319,7 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -2207,10 +2327,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="5" t="s">
@@ -2218,7 +2338,7 @@
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -2277,7 +2397,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="A1:G8"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2296,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -2351,7 +2471,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>17</v>
@@ -2359,10 +2479,10 @@
       <c r="D4" s="5"/>
       <c r="E4" s="4"/>
       <c r="F4" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2370,7 +2490,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>81</v>
@@ -2379,7 +2499,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2387,7 +2507,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>81</v>
@@ -2396,7 +2516,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -2451,8 +2571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F562E7-12E3-427E-8875-A118080E72C8}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="A1:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2471,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -2526,7 +2646,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>17</v>
@@ -2534,10 +2654,10 @@
       <c r="D4" s="5"/>
       <c r="E4" s="4"/>
       <c r="F4" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2545,7 +2665,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>81</v>
@@ -2554,7 +2674,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2562,16 +2682,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -2579,10 +2699,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5" t="s">
@@ -2590,7 +2710,7 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2637,6 +2757,741 @@
   <hyperlinks>
     <hyperlink ref="F4" location="摇号结果!A1" display="ShakingNumberResult_ID" xr:uid="{46FB9908-0860-4C2C-BE0B-1E4B3FEF5DBF}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392F3D49-7C62-46CE-BF11-117EF1DCAF60}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="A1:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6255FE-CFC2-41EE-9E47-DBD24D09376A}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F4" location="前台账号表!A1" display="FrontEndAccount_ID" xr:uid="{BECBA463-4F99-4D03-B1EA-DC9B5DBECC2B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987C73B4-42C3-4976-915B-1435AE076B7E}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A6:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A68EE4-84D1-4635-B6BC-4D3D470D22A0}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F4" location="后台账号表!A1" display="BackEndAccount_ID" xr:uid="{BE1597A7-7F86-4D50-AA6B-311FDCAD8E45}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5007B512-03F6-4FDB-8D61-AE0B8D7DDC83}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2898,10 +3753,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F5B5FD-96E3-4B89-952C-27FC70BB0A07}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3045,34 +3900,51 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>81</v>
+        <v>171</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="G8" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3416,18 +4288,18 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3762,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -3817,7 +4689,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>17</v>
@@ -3920,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -3975,7 +4847,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>17</v>
@@ -3997,13 +4869,13 @@
         <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="6"/>
       <c r="G5" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">

--- a/Doc/数据库表结构说明.xlsx
+++ b/Doc/数据库表结构说明.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rock\source\repos\HouseSelection\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DC0B6D89-BBED-4572-8A9A-5BCD66C9DB37}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D4934180-8DE9-49C4-AC0B-629E99C8D328}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" firstSheet="10" activeTab="17" xr2:uid="{FEA1F325-EEC8-47FE-82EB-7325F5028A40}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" firstSheet="4" activeTab="12" xr2:uid="{FEA1F325-EEC8-47FE-82EB-7325F5028A40}"/>
   </bookViews>
   <sheets>
     <sheet name="地区" sheetId="9" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="203">
   <si>
     <t>表名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -642,21 +642,10 @@
     <t>ResultType</t>
   </si>
   <si>
-    <t>ErrorType</t>
-  </si>
-  <si>
     <t>通知时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>通知结果(1-有效电话;2-无效电话;3-未接通)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无效原因(1-号码有误;2-非本人)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TelephoneNoticeRecord</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -779,6 +768,25 @@
   </si>
   <si>
     <t>ApplicationAccount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知结果(1-有效电话;2-未接通;3-号码有误;4-非本人)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsConfirm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsAuthorized</t>
+  </si>
+  <si>
+    <t>是否验证</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1764,10 +1772,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7810AD4-5867-4F65-9747-6A4E5AF72F58}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D20" sqref="D20:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1879,7 +1887,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>17</v>
@@ -1896,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>94</v>
@@ -2027,6 +2035,23 @@
       <c r="F14" s="4"/>
       <c r="G14" s="3" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="3" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2045,10 +2070,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07078727-5368-4B24-9C83-E3A5AA787F32}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2248,40 +2273,38 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>126</v>
+        <v>199</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="E11" s="5"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="G11" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -2289,10 +2312,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="5" t="s">
@@ -2300,7 +2323,7 @@
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -2308,7 +2331,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>114</v>
@@ -2319,7 +2342,7 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -2327,7 +2350,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>114</v>
@@ -2338,42 +2361,61 @@
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="E16" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="G16" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="3" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2396,7 +2438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57A15C4-00F7-4245-99DC-353A41057D7D}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -2569,10 +2611,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F562E7-12E3-427E-8875-A118080E72C8}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="A1:G9"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2583,7 +2625,7 @@
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -2591,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -2674,7 +2716,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2691,61 +2733,42 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>100</v>
+        <v>80</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G7" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="E8" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2785,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -2840,16 +2863,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="4"/>
       <c r="F4" s="7"/>
       <c r="G4" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2857,16 +2880,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2938,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -2993,7 +3016,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>17</v>
@@ -3001,10 +3024,10 @@
       <c r="D4" s="5"/>
       <c r="E4" s="4"/>
       <c r="F4" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3012,7 +3035,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>81</v>
@@ -3021,7 +3044,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -3029,7 +3052,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>19</v>
@@ -3038,7 +3061,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3076,7 +3099,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -3131,16 +3154,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="4"/>
       <c r="F4" s="7"/>
       <c r="G4" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3148,16 +3171,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -3165,7 +3188,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>81</v>
@@ -3209,7 +3232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A68EE4-84D1-4635-B6BC-4D3D470D22A0}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -3229,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -3284,7 +3307,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>17</v>
@@ -3292,10 +3315,10 @@
       <c r="D4" s="5"/>
       <c r="E4" s="4"/>
       <c r="F4" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3303,7 +3326,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>81</v>
@@ -3312,7 +3335,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -3320,7 +3343,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>19</v>
@@ -3329,7 +3352,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3341,6 +3364,7 @@
     <hyperlink ref="F4" location="后台账号表!A1" display="BackEndAccount_ID" xr:uid="{BE1597A7-7F86-4D50-AA6B-311FDCAD8E45}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3367,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -3422,7 +3446,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>94</v>
@@ -3431,7 +3455,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="7"/>
       <c r="G4" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3439,7 +3463,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>94</v>
@@ -3448,7 +3472,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -3456,7 +3480,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>81</v>
@@ -3900,16 +3924,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">

--- a/Doc/数据库表结构说明.xlsx
+++ b/Doc/数据库表结构说明.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rock\source\repos\HouseSelection\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D4934180-8DE9-49C4-AC0B-629E99C8D328}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EBA769C0-9305-451D-97BB-A138E08DCA73}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" firstSheet="4" activeTab="12" xr2:uid="{FEA1F325-EEC8-47FE-82EB-7325F5028A40}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" firstSheet="4" activeTab="14" xr2:uid="{FEA1F325-EEC8-47FE-82EB-7325F5028A40}"/>
   </bookViews>
   <sheets>
     <sheet name="地区" sheetId="9" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="207">
   <si>
     <t>表名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -787,6 +787,22 @@
   </si>
   <si>
     <t>是否验证</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2438,7 +2454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57A15C4-00F7-4245-99DC-353A41057D7D}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -2606,6 +2622,7 @@
     <hyperlink ref="F4" location="摇号结果!A1" display="ShakingNumberResult_ID" xr:uid="{1B24577A-C952-46E6-B947-1D897DCA7D02}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2787,10 +2804,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392F3D49-7C62-46CE-BF11-117EF1DCAF60}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="A1:G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2799,7 +2816,8 @@
     <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2859,72 +2877,89 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
+      <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="G4" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="4" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>81</v>
+        <v>172</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="G6" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2933,6 +2968,9 @@
     <mergeCell ref="B1:G1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F4" location="项目!A1" display="Project_ID" xr:uid="{49B0D279-F13B-48C9-98EC-27E663350E5B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Doc/数据库表结构说明.xlsx
+++ b/Doc/数据库表结构说明.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rock\source\repos\HouseSelection\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EBA769C0-9305-451D-97BB-A138E08DCA73}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{44449004-1706-4F4F-B2C9-6F66F0D80212}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" firstSheet="4" activeTab="14" xr2:uid="{FEA1F325-EEC8-47FE-82EB-7325F5028A40}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" firstSheet="4" activeTab="10" xr2:uid="{FEA1F325-EEC8-47FE-82EB-7325F5028A40}"/>
   </bookViews>
   <sheets>
     <sheet name="地区" sheetId="9" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="214">
   <si>
     <t>表名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -803,6 +803,33 @@
   </si>
   <si>
     <t>项目ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DevelopCompany</t>
+  </si>
+  <si>
+    <t>NVARCHAR(200)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发企业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预售证号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectHouseSequance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选房顺序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1788,10 +1815,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7810AD4-5867-4F65-9747-6A4E5AF72F58}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2068,6 +2095,23 @@
       <c r="F15" s="4"/>
       <c r="G15" s="3" t="s">
         <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="3" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2806,7 +2850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392F3D49-7C62-46CE-BF11-117EF1DCAF60}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -4184,17 +4228,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0893C854-8CB0-4481-94C7-2D1BD881E5E1}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.875" bestFit="1" customWidth="1"/>
@@ -4362,6 +4405,40 @@
       </c>
       <c r="G9" s="3" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/数据库表结构说明.xlsx
+++ b/Doc/数据库表结构说明.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rock\source\repos\HouseSelection\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{44449004-1706-4F4F-B2C9-6F66F0D80212}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1377481B-171F-44C3-B908-2CE3CB1873B7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" firstSheet="4" activeTab="10" xr2:uid="{FEA1F325-EEC8-47FE-82EB-7325F5028A40}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" firstSheet="4" activeTab="4" xr2:uid="{FEA1F325-EEC8-47FE-82EB-7325F5028A40}"/>
   </bookViews>
   <sheets>
     <sheet name="地区" sheetId="9" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="220">
   <si>
     <t>表名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -830,6 +830,28 @@
   </si>
   <si>
     <t>选房顺序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsEnd</t>
+  </si>
+  <si>
+    <t>EndReason</t>
+  </si>
+  <si>
+    <t>BIT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR(2000)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目是否结束</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束原因</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1817,7 +1839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7810AD4-5867-4F65-9747-6A4E5AF72F58}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -4228,10 +4250,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0893C854-8CB0-4481-94C7-2D1BD881E5E1}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4439,6 +4461,42 @@
       <c r="F11" s="4"/>
       <c r="G11" s="3" t="s">
         <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/数据库表结构说明.xlsx
+++ b/Doc/数据库表结构说明.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rock\source\repos\HouseSelection\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1377481B-171F-44C3-B908-2CE3CB1873B7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0A3D1EBA-478E-4140-A193-F13AA9DC0BDC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" firstSheet="4" activeTab="4" xr2:uid="{FEA1F325-EEC8-47FE-82EB-7325F5028A40}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" firstSheet="1" activeTab="15" xr2:uid="{FEA1F325-EEC8-47FE-82EB-7325F5028A40}"/>
   </bookViews>
   <sheets>
     <sheet name="地区" sheetId="9" r:id="rId1"/>
@@ -28,10 +28,11 @@
     <sheet name="选房时间段表" sheetId="13" r:id="rId13"/>
     <sheet name="电话通知记录表" sheetId="14" r:id="rId14"/>
     <sheet name="前台账号表" sheetId="15" r:id="rId15"/>
-    <sheet name="前台账号登陆记录表" sheetId="16" r:id="rId16"/>
-    <sheet name="后台账号表" sheetId="17" r:id="rId17"/>
-    <sheet name="后台账号登陆记录表" sheetId="18" r:id="rId18"/>
-    <sheet name="应用账号表" sheetId="19" r:id="rId19"/>
+    <sheet name="前台账号项目关联表" sheetId="20" r:id="rId16"/>
+    <sheet name="前台账号登陆记录表" sheetId="16" r:id="rId17"/>
+    <sheet name="后台账号表" sheetId="17" r:id="rId18"/>
+    <sheet name="后台账号登陆记录表" sheetId="18" r:id="rId19"/>
+    <sheet name="应用账号表" sheetId="19" r:id="rId20"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="217">
   <si>
     <t>表名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -790,7 +791,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ProjectID</t>
+    <t>DevelopCompany</t>
+  </si>
+  <si>
+    <t>NVARCHAR(200)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发企业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预售证号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectHouseSequance</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -798,37 +814,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Project_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DevelopCompany</t>
-  </si>
-  <si>
-    <t>NVARCHAR(200)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发企业</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预售证号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SelectHouseSequance</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>选房顺序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -852,6 +837,10 @@
   </si>
   <si>
     <t>结束原因</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FrontEndAccountProjectMapping</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2124,16 +2113,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -2870,10 +2859,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392F3D49-7C62-46CE-BF11-117EF1DCAF60}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G7" sqref="A1:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2943,89 +2932,72 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
       <c r="B4" s="4" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="7" t="s">
-        <v>205</v>
-      </c>
+      <c r="F4" s="7"/>
       <c r="G4" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D5" s="5"/>
+        <v>169</v>
+      </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="7"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>169</v>
+        <v>80</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G6" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3034,14 +3006,168 @@
     <mergeCell ref="B1:G1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="F4" location="项目!A1" display="Project_ID" xr:uid="{49B0D279-F13B-48C9-98EC-27E663350E5B}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB63DE19-D006-447E-832C-AC0C91DA97D4}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6255FE-CFC2-41EE-9E47-DBD24D09376A}">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -3180,7 +3306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987C73B4-42C3-4976-915B-1435AE076B7E}">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -3332,7 +3458,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A68EE4-84D1-4635-B6BC-4D3D470D22A0}">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -3469,158 +3595,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5007B512-03F6-4FDB-8D61-AE0B8D7DDC83}">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3876,6 +3850,158 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5007B512-03F6-4FDB-8D61-AE0B8D7DDC83}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4252,8 +4378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0893C854-8CB0-4481-94C7-2D1BD881E5E1}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4434,16 +4560,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -4454,13 +4580,13 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -4468,16 +4594,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -4485,10 +4611,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="5" t="s">
@@ -4496,7 +4622,7 @@
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/数据库表结构说明.xlsx
+++ b/Doc/数据库表结构说明.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rock\source\repos\HouseSelection\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rock\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0A3D1EBA-478E-4140-A193-F13AA9DC0BDC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" firstSheet="1" activeTab="15" xr2:uid="{FEA1F325-EEC8-47FE-82EB-7325F5028A40}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" firstSheet="12" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="地区" sheetId="9" r:id="rId1"/>
@@ -34,7 +33,7 @@
     <sheet name="后台账号登陆记录表" sheetId="18" r:id="rId19"/>
     <sheet name="应用账号表" sheetId="19" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="221">
   <si>
     <t>表名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -842,17 +841,29 @@
   <si>
     <t>FrontEndAccountProjectMapping</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoticeTelephone</t>
+  </si>
+  <si>
+    <t>FrontEndAccount_ID</t>
+  </si>
+  <si>
+    <t>登陆账号</t>
+  </si>
+  <si>
+    <t>通知使用电话</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -860,14 +871,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -875,7 +886,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -884,7 +895,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -893,7 +904,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -989,9 +1000,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
-    <cellStyle name="着色 1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="着色 1 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1302,21 +1313,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1393F8AB-CA1B-4B8E-8B47-9BDF08CCD9D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1329,7 +1340,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1352,7 +1363,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1371,7 +1382,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -1388,7 +1399,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -1416,23 +1427,23 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CA8260-0DDF-48A3-86E1-5089904B98B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1445,7 +1456,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1468,7 +1479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1487,7 +1498,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -1506,7 +1517,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -1523,7 +1534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -1542,7 +1553,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.75">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -1561,7 +1572,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -1578,7 +1589,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -1595,7 +1606,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -1612,7 +1623,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -1631,7 +1642,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -1648,7 +1659,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -1665,7 +1676,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -1682,7 +1693,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -1699,7 +1710,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -1716,7 +1727,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -1733,7 +1744,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -1750,7 +1761,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="15.75">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -1769,7 +1780,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -1788,7 +1799,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -1813,11 +1824,11 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F4" location="项目!A1" display="Project_ID" xr:uid="{9963EF2D-179E-491F-8D20-AAE7C4FBB527}"/>
-    <hyperlink ref="F11" location="居室!A1" display="RoomType_ID" xr:uid="{47821033-B7E2-487D-8FA0-8399B5F318ED}"/>
-    <hyperlink ref="F6" location="房源分组!A1" display="HouseGroup_ID" xr:uid="{B50DE885-11AE-4DD2-9EC5-6F0CC699858B}"/>
-    <hyperlink ref="F20" location="楼盘信息!A1" display="HouseEstate_ID" xr:uid="{D8E9C009-E08E-42CF-9BE1-251F300D48AB}"/>
-    <hyperlink ref="F21" location="认购人!A1" display="Subscriber_ID" xr:uid="{FA742B32-EA6E-4773-A268-8D275290C52A}"/>
+    <hyperlink ref="F4" location="项目!A1" display="Project_ID"/>
+    <hyperlink ref="F11" location="居室!A1" display="RoomType_ID"/>
+    <hyperlink ref="F6" location="房源分组!A1" display="HouseGroup_ID"/>
+    <hyperlink ref="F20" location="楼盘信息!A1" display="HouseEstate_ID"/>
+    <hyperlink ref="F21" location="认购人!A1" display="Subscriber_ID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1825,25 +1836,25 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7810AD4-5867-4F65-9747-6A4E5AF72F58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1856,7 +1867,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1879,7 +1890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1898,7 +1909,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -1917,7 +1928,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -1936,7 +1947,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -1953,7 +1964,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -1970,7 +1981,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -1987,7 +1998,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -2004,7 +2015,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -2021,7 +2032,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -2038,7 +2049,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -2055,7 +2066,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -2072,7 +2083,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15.75">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -2091,7 +2102,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -2108,7 +2119,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -2131,8 +2142,8 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F4" location="项目分组!A1" display="ProjectGroup_ID" xr:uid="{7BD6AC0D-7212-40A0-82B2-D9DC01EB67CE}"/>
-    <hyperlink ref="F5" location="认购人参与项目关系!A1" display="SubscriberProjectMapping_ID" xr:uid="{1E5E7E8C-4590-4A15-BC5A-1C741AD74B77}"/>
+    <hyperlink ref="F4" location="项目分组!A1" display="ProjectGroup_ID"/>
+    <hyperlink ref="F5" location="认购人参与项目关系!A1" display="SubscriberProjectMapping_ID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2140,25 +2151,25 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07078727-5368-4B24-9C83-E3A5AA787F32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2171,7 +2182,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2194,7 +2205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -2213,7 +2224,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -2232,7 +2243,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -2251,7 +2262,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -2270,7 +2281,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -2287,7 +2298,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.75">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -2306,7 +2317,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15.75">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -2325,7 +2336,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15.75">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -2344,7 +2355,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15.75">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -2361,7 +2372,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -2378,7 +2389,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15.75">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -2397,7 +2408,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15.75">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -2416,7 +2427,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15.75">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -2435,7 +2446,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15.75">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -2454,7 +2465,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -2471,7 +2482,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15.75">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -2496,9 +2507,9 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F4" location="项目!A1" display="Project_ID" xr:uid="{D08C10E9-7932-4716-9172-F7E78D0920F3}"/>
-    <hyperlink ref="F5" location="房源信息!A1" display="House_ID" xr:uid="{FDF3D431-2858-4959-91D2-4BEBE44BF1F2}"/>
-    <hyperlink ref="F6" location="认购人!A1" display="Subscriber_ID" xr:uid="{22AE9934-1943-486B-B294-1E8595B40F8C}"/>
+    <hyperlink ref="F4" location="项目!A1" display="Project_ID"/>
+    <hyperlink ref="F5" location="房源信息!A1" display="House_ID"/>
+    <hyperlink ref="F6" location="认购人!A1" display="Subscriber_ID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2506,25 +2517,25 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57A15C4-00F7-4245-99DC-353A41057D7D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2537,7 +2548,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2560,7 +2571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -2579,7 +2590,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -2598,7 +2609,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -2615,7 +2626,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -2632,7 +2643,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -2649,7 +2660,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.75">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -2674,7 +2685,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F4" location="摇号结果!A1" display="ShakingNumberResult_ID" xr:uid="{1B24577A-C952-46E6-B947-1D897DCA7D02}"/>
+    <hyperlink ref="F4" location="摇号结果!A1" display="ShakingNumberResult_ID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2682,25 +2693,25 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F562E7-12E3-427E-8875-A118080E72C8}">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2713,7 +2724,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2736,7 +2747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -2755,7 +2766,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -2774,7 +2785,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -2791,7 +2802,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -2808,7 +2819,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2825,7 +2836,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.75">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2842,6 +2853,42 @@
       <c r="F8" s="4"/>
       <c r="G8" s="3" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -2850,7 +2897,8 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F4" location="摇号结果!A1" display="ShakingNumberResult_ID" xr:uid="{46FB9908-0860-4C2C-BE0B-1E4B3FEF5DBF}"/>
+    <hyperlink ref="F4" location="摇号结果!A1" display="ShakingNumberResult_ID"/>
+    <hyperlink ref="F9" location="前台账号表!A1" display="FrontEndAccount_ID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2858,25 +2906,25 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392F3D49-7C62-46CE-BF11-117EF1DCAF60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="A1:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2889,7 +2937,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2912,7 +2960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -2931,7 +2979,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -2948,7 +2996,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -2965,7 +3013,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -2982,7 +3030,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.75">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -3011,25 +3059,25 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB63DE19-D006-447E-832C-AC0C91DA97D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3042,7 +3090,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3065,7 +3113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -3084,7 +3132,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -3103,7 +3151,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -3122,7 +3170,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -3139,7 +3187,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.75">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -3168,25 +3216,25 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6255FE-CFC2-41EE-9E47-DBD24D09376A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3199,7 +3247,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3222,7 +3270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -3241,7 +3289,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -3260,7 +3308,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -3277,7 +3325,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -3300,31 +3348,31 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F4" location="前台账号表!A1" display="FrontEndAccount_ID" xr:uid="{BECBA463-4F99-4D03-B1EA-DC9B5DBECC2B}"/>
+    <hyperlink ref="F4" location="前台账号表!A1" display="FrontEndAccount_ID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987C73B4-42C3-4976-915B-1435AE076B7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A6:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3337,7 +3385,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3360,7 +3408,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -3379,7 +3427,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -3396,7 +3444,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -3413,7 +3461,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -3430,7 +3478,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.75">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -3459,25 +3507,25 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A68EE4-84D1-4635-B6BC-4D3D470D22A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3490,7 +3538,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3513,7 +3561,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -3532,7 +3580,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -3551,7 +3599,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -3568,7 +3616,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -3591,7 +3639,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F4" location="后台账号表!A1" display="BackEndAccount_ID" xr:uid="{BE1597A7-7F86-4D50-AA6B-311FDCAD8E45}"/>
+    <hyperlink ref="F4" location="后台账号表!A1" display="BackEndAccount_ID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3599,24 +3647,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC98E902-DB2E-4845-B0A0-0F9A8B9C3C59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3629,7 +3677,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3652,7 +3700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -3671,7 +3719,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -3688,7 +3736,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -3705,7 +3753,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -3722,7 +3770,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -3739,7 +3787,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -3756,7 +3804,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -3773,7 +3821,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -3790,7 +3838,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -3807,7 +3855,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -3824,7 +3872,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15.75">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -3854,24 +3902,24 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5007B512-03F6-4FDB-8D61-AE0B8D7DDC83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3884,7 +3932,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3907,7 +3955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -3926,7 +3974,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -3943,7 +3991,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -3960,7 +4008,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -3977,7 +4025,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.75">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -4006,25 +4054,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F5B5FD-96E3-4B89-952C-27FC70BB0A07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4037,7 +4085,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4060,7 +4108,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -4079,7 +4127,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -4098,7 +4146,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -4115,7 +4163,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -4132,7 +4180,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -4149,7 +4197,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -4166,7 +4214,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -4183,7 +4231,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15.75">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -4208,7 +4256,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F4" location="认购人!A1" display="Subscriber_ID" xr:uid="{6AB6E376-97FE-4582-AC9E-23367DA3DFA3}"/>
+    <hyperlink ref="F4" location="认购人!A1" display="Subscriber_ID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4216,25 +4264,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4F1516-0F0D-4807-8CBE-8A6B6DB5739C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4247,7 +4295,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4270,7 +4318,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -4289,7 +4337,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -4308,7 +4356,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -4325,7 +4373,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -4342,7 +4390,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.75">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -4367,7 +4415,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F4" location="项目!A1" display="Project_ID" xr:uid="{43AA46B3-6ADD-40C5-B938-DB9B058C358C}"/>
+    <hyperlink ref="F4" location="项目!A1" display="Project_ID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4375,24 +4423,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0893C854-8CB0-4481-94C7-2D1BD881E5E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4405,7 +4453,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4428,7 +4476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -4447,7 +4495,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -4464,7 +4512,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -4481,7 +4529,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.75">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -4500,7 +4548,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -4517,7 +4565,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.75">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -4536,7 +4584,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -4555,7 +4603,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -4572,7 +4620,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -4589,7 +4637,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -4606,7 +4654,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15.75">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -4631,7 +4679,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F9" location="地区!A1" display="Area_ID" xr:uid="{41022FCA-A0EF-4834-AE49-04BA9247BC6E}"/>
+    <hyperlink ref="F9" location="地区!A1" display="Area_ID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4639,25 +4687,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0278F26C-D911-401B-9E03-8C94A59B49C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4670,7 +4718,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4693,7 +4741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -4712,7 +4760,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -4731,7 +4779,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -4750,7 +4798,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -4767,7 +4815,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.75">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -4792,8 +4840,8 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F4" location="认购人!A1" display="Subscriber_ID" xr:uid="{19D8150D-C7D3-43F1-9E63-8FF1AFEA1178}"/>
-    <hyperlink ref="F5" location="项目!A1" display="Project_ID" xr:uid="{FCC5329E-0302-4C49-A29A-EF335CD37FCA}"/>
+    <hyperlink ref="F4" location="认购人!A1" display="Subscriber_ID"/>
+    <hyperlink ref="F5" location="项目!A1" display="Project_ID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4801,24 +4849,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A9E669F-A9C0-4C14-81EF-1572AC5A6460}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4831,7 +4879,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4854,7 +4902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -4873,7 +4921,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -4890,7 +4938,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -4907,7 +4955,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.75">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -4937,22 +4985,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816ABE42-E1F6-4A05-B119-24E0099DA616}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="26.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4965,7 +5013,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4988,7 +5036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -5007,7 +5055,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -5026,7 +5074,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -5043,7 +5091,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -5060,7 +5108,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.75">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -5085,7 +5133,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F4" location="项目!A1" display="Project_ID" xr:uid="{1B5FF223-58FF-4146-991E-B842F8CAD00C}"/>
+    <hyperlink ref="F4" location="项目!A1" display="Project_ID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5093,24 +5141,24 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED63455-A287-40A3-B2B0-FD736394383F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5123,7 +5171,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -5146,7 +5194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -5165,7 +5213,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -5184,7 +5232,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -5201,7 +5249,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -5218,7 +5266,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.75">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -5243,7 +5291,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F4" location="项目!A1" display="Project_ID" xr:uid="{C7E69DA5-5DCB-47FC-AB9F-E5E8389CBDC7}"/>
+    <hyperlink ref="F4" location="项目!A1" display="Project_ID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Doc/数据库表结构说明.xlsx
+++ b/Doc/数据库表结构说明.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rock\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rock\source\repos\HouseSelection\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EBA769C0-9305-451D-97BB-A138E08DCA73}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" firstSheet="12" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" firstSheet="4" activeTab="14" xr2:uid="{FEA1F325-EEC8-47FE-82EB-7325F5028A40}"/>
   </bookViews>
   <sheets>
     <sheet name="地区" sheetId="9" r:id="rId1"/>
@@ -27,13 +28,12 @@
     <sheet name="选房时间段表" sheetId="13" r:id="rId13"/>
     <sheet name="电话通知记录表" sheetId="14" r:id="rId14"/>
     <sheet name="前台账号表" sheetId="15" r:id="rId15"/>
-    <sheet name="前台账号项目关联表" sheetId="20" r:id="rId16"/>
-    <sheet name="前台账号登陆记录表" sheetId="16" r:id="rId17"/>
-    <sheet name="后台账号表" sheetId="17" r:id="rId18"/>
-    <sheet name="后台账号登陆记录表" sheetId="18" r:id="rId19"/>
-    <sheet name="应用账号表" sheetId="19" r:id="rId20"/>
+    <sheet name="前台账号登陆记录表" sheetId="16" r:id="rId16"/>
+    <sheet name="后台账号表" sheetId="17" r:id="rId17"/>
+    <sheet name="后台账号登陆记录表" sheetId="18" r:id="rId18"/>
+    <sheet name="应用账号表" sheetId="19" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="207">
   <si>
     <t>表名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -790,22 +790,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DevelopCompany</t>
-  </si>
-  <si>
-    <t>NVARCHAR(200)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发企业</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预售证号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SelectHouseSequance</t>
+    <t>ProjectID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -813,57 +798,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>选房顺序号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsEnd</t>
-  </si>
-  <si>
-    <t>EndReason</t>
-  </si>
-  <si>
-    <t>BIT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVARCHAR(2000)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目是否结束</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束原因</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FrontEndAccountProjectMapping</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NoticeTelephone</t>
-  </si>
-  <si>
-    <t>FrontEndAccount_ID</t>
-  </si>
-  <si>
-    <t>登陆账号</t>
-  </si>
-  <si>
-    <t>通知使用电话</t>
+    <t>Project_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -871,14 +822,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -886,7 +837,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -895,7 +846,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -904,7 +855,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1000,9 +951,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
-    <cellStyle name="着色 1 2" xfId="2"/>
+    <cellStyle name="着色 1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1313,21 +1264,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1393F8AB-CA1B-4B8E-8B47-9BDF08CCD9D6}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1340,7 +1291,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1363,7 +1314,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1382,7 +1333,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -1399,7 +1350,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -1427,23 +1378,23 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CA8260-0DDF-48A3-86E1-5089904B98B0}">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1456,7 +1407,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1479,7 +1430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1498,7 +1449,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -1517,7 +1468,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -1534,7 +1485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -1553,7 +1504,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75">
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -1572,7 +1523,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -1589,7 +1540,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -1606,7 +1557,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -1623,7 +1574,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -1642,7 +1593,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -1659,7 +1610,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -1676,7 +1627,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -1693,7 +1644,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -1710,7 +1661,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -1727,7 +1678,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -1744,7 +1695,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -1761,7 +1712,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75">
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -1780,7 +1731,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -1799,7 +1750,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -1824,11 +1775,11 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F4" location="项目!A1" display="Project_ID"/>
-    <hyperlink ref="F11" location="居室!A1" display="RoomType_ID"/>
-    <hyperlink ref="F6" location="房源分组!A1" display="HouseGroup_ID"/>
-    <hyperlink ref="F20" location="楼盘信息!A1" display="HouseEstate_ID"/>
-    <hyperlink ref="F21" location="认购人!A1" display="Subscriber_ID"/>
+    <hyperlink ref="F4" location="项目!A1" display="Project_ID" xr:uid="{9963EF2D-179E-491F-8D20-AAE7C4FBB527}"/>
+    <hyperlink ref="F11" location="居室!A1" display="RoomType_ID" xr:uid="{47821033-B7E2-487D-8FA0-8399B5F318ED}"/>
+    <hyperlink ref="F6" location="房源分组!A1" display="HouseGroup_ID" xr:uid="{B50DE885-11AE-4DD2-9EC5-6F0CC699858B}"/>
+    <hyperlink ref="F20" location="楼盘信息!A1" display="HouseEstate_ID" xr:uid="{D8E9C009-E08E-42CF-9BE1-251F300D48AB}"/>
+    <hyperlink ref="F21" location="认购人!A1" display="Subscriber_ID" xr:uid="{FA742B32-EA6E-4773-A268-8D275290C52A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1836,25 +1787,25 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7810AD4-5867-4F65-9747-6A4E5AF72F58}">
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="D20" sqref="D20:E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1867,7 +1818,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1890,7 +1841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1909,7 +1860,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -1928,7 +1879,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -1947,7 +1898,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -1964,7 +1915,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -1981,7 +1932,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -1998,7 +1949,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -2015,7 +1966,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -2032,7 +1983,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -2049,7 +2000,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -2066,7 +2017,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -2083,7 +2034,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75">
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -2102,7 +2053,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -2117,23 +2068,6 @@
       <c r="F15" s="4"/>
       <c r="G15" s="3" t="s">
         <v>202</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="4">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -2142,8 +2076,8 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F4" location="项目分组!A1" display="ProjectGroup_ID"/>
-    <hyperlink ref="F5" location="认购人参与项目关系!A1" display="SubscriberProjectMapping_ID"/>
+    <hyperlink ref="F4" location="项目分组!A1" display="ProjectGroup_ID" xr:uid="{7BD6AC0D-7212-40A0-82B2-D9DC01EB67CE}"/>
+    <hyperlink ref="F5" location="认购人参与项目关系!A1" display="SubscriberProjectMapping_ID" xr:uid="{1E5E7E8C-4590-4A15-BC5A-1C741AD74B77}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2151,25 +2085,25 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07078727-5368-4B24-9C83-E3A5AA787F32}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2182,7 +2116,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2205,7 +2139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -2224,7 +2158,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -2243,7 +2177,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -2262,7 +2196,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -2281,7 +2215,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -2298,7 +2232,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75">
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -2317,7 +2251,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75">
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -2336,7 +2270,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75">
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -2355,7 +2289,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75">
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -2372,7 +2306,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -2389,7 +2323,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75">
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -2408,7 +2342,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75">
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -2427,7 +2361,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75">
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -2446,7 +2380,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75">
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -2465,7 +2399,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -2482,7 +2416,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75">
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -2507,9 +2441,9 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F4" location="项目!A1" display="Project_ID"/>
-    <hyperlink ref="F5" location="房源信息!A1" display="House_ID"/>
-    <hyperlink ref="F6" location="认购人!A1" display="Subscriber_ID"/>
+    <hyperlink ref="F4" location="项目!A1" display="Project_ID" xr:uid="{D08C10E9-7932-4716-9172-F7E78D0920F3}"/>
+    <hyperlink ref="F5" location="房源信息!A1" display="House_ID" xr:uid="{FDF3D431-2858-4959-91D2-4BEBE44BF1F2}"/>
+    <hyperlink ref="F6" location="认购人!A1" display="Subscriber_ID" xr:uid="{22AE9934-1943-486B-B294-1E8595B40F8C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2517,25 +2451,25 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57A15C4-00F7-4245-99DC-353A41057D7D}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2548,7 +2482,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2571,7 +2505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -2590,7 +2524,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -2609,7 +2543,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -2626,7 +2560,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -2643,7 +2577,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -2660,7 +2594,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75">
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -2685,7 +2619,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F4" location="摇号结果!A1" display="ShakingNumberResult_ID"/>
+    <hyperlink ref="F4" location="摇号结果!A1" display="ShakingNumberResult_ID" xr:uid="{1B24577A-C952-46E6-B947-1D897DCA7D02}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2693,25 +2627,25 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F562E7-12E3-427E-8875-A118080E72C8}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2724,7 +2658,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2747,7 +2681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -2766,7 +2700,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -2785,7 +2719,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -2802,7 +2736,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -2819,7 +2753,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2836,7 +2770,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75">
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2853,42 +2787,6 @@
       <c r="F8" s="4"/>
       <c r="G8" s="3" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
-        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -2897,8 +2795,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F4" location="摇号结果!A1" display="ShakingNumberResult_ID"/>
-    <hyperlink ref="F9" location="前台账号表!A1" display="FrontEndAccount_ID"/>
+    <hyperlink ref="F4" location="摇号结果!A1" display="ShakingNumberResult_ID" xr:uid="{46FB9908-0860-4C2C-BE0B-1E4B3FEF5DBF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2906,25 +2803,25 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392F3D49-7C62-46CE-BF11-117EF1DCAF60}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="A1:G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2937,7 +2834,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2960,7 +2857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -2979,7 +2876,318 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F4" location="项目!A1" display="Project_ID" xr:uid="{49B0D279-F13B-48C9-98EC-27E663350E5B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6255FE-CFC2-41EE-9E47-DBD24D09376A}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F4" location="前台账号表!A1" display="FrontEndAccount_ID" xr:uid="{BECBA463-4F99-4D03-B1EA-DC9B5DBECC2B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987C73B4-42C3-4976-915B-1435AE076B7E}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A6:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -2993,10 +3201,10 @@
       <c r="E4" s="4"/>
       <c r="F4" s="7"/>
       <c r="G4" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -3010,15 +3218,15 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>81</v>
@@ -3030,7 +3238,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75">
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -3058,31 +3266,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A68EE4-84D1-4635-B6BC-4D3D470D22A0}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -3090,7 +3298,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3113,7 +3321,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -3132,50 +3340,185 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
-        <v>183</v>
+      <c r="F4" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>49</v>
+        <v>178</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>80</v>
+        <v>179</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F4" location="后台账号表!A1" display="BackEndAccount_ID" xr:uid="{BE1597A7-7F86-4D50-AA6B-311FDCAD8E45}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5007B512-03F6-4FDB-8D61-AE0B8D7DDC83}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>81</v>
@@ -3187,7 +3530,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75">
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -3215,456 +3558,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="A1:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="F4" location="前台账号表!A1" display="FrontEndAccount_ID"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A6:XFD7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="F4" location="后台账号表!A1" display="BackEndAccount_ID"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC98E902-DB2E-4845-B0A0-0F9A8B9C3C59}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3677,7 +3589,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3700,7 +3612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -3719,7 +3631,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -3736,7 +3648,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -3753,7 +3665,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -3770,7 +3682,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -3787,7 +3699,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -3804,7 +3716,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -3821,7 +3733,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -3838,7 +3750,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -3855,7 +3767,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -3872,7 +3784,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75">
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -3901,178 +3813,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F5B5FD-96E3-4B89-952C-27FC70BB0A07}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4085,7 +3845,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4108,7 +3868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -4127,7 +3887,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -4146,7 +3906,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -4163,7 +3923,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -4180,7 +3940,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -4197,7 +3957,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -4214,7 +3974,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -4231,7 +3991,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75">
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -4256,7 +4016,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F4" location="认购人!A1" display="Subscriber_ID"/>
+    <hyperlink ref="F4" location="认购人!A1" display="Subscriber_ID" xr:uid="{6AB6E376-97FE-4582-AC9E-23367DA3DFA3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4264,25 +4024,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4F1516-0F0D-4807-8CBE-8A6B6DB5739C}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4295,7 +4055,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4318,7 +4078,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -4337,7 +4097,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -4356,7 +4116,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -4373,7 +4133,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -4390,7 +4150,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75">
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -4415,7 +4175,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F4" location="项目!A1" display="Project_ID"/>
+    <hyperlink ref="F4" location="项目!A1" display="Project_ID" xr:uid="{43AA46B3-6ADD-40C5-B938-DB9B058C358C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4423,24 +4183,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0893C854-8CB0-4481-94C7-2D1BD881E5E1}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4453,7 +4214,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4476,7 +4237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -4495,7 +4256,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -4512,7 +4273,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -4529,7 +4290,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -4548,7 +4309,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -4565,7 +4326,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75">
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -4584,7 +4345,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -4601,76 +4362,6 @@
       </c>
       <c r="G9" s="3" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="4">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4" t="s">
-        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -4679,7 +4370,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F9" location="地区!A1" display="Area_ID"/>
+    <hyperlink ref="F9" location="地区!A1" display="Area_ID" xr:uid="{41022FCA-A0EF-4834-AE49-04BA9247BC6E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4687,25 +4378,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0278F26C-D911-401B-9E03-8C94A59B49C4}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4718,7 +4409,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4741,7 +4432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -4760,7 +4451,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -4779,7 +4470,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -4798,7 +4489,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -4815,7 +4506,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75">
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -4840,8 +4531,8 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F4" location="认购人!A1" display="Subscriber_ID"/>
-    <hyperlink ref="F5" location="项目!A1" display="Project_ID"/>
+    <hyperlink ref="F4" location="认购人!A1" display="Subscriber_ID" xr:uid="{19D8150D-C7D3-43F1-9E63-8FF1AFEA1178}"/>
+    <hyperlink ref="F5" location="项目!A1" display="Project_ID" xr:uid="{FCC5329E-0302-4C49-A29A-EF335CD37FCA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4849,24 +4540,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A9E669F-A9C0-4C14-81EF-1572AC5A6460}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4879,7 +4570,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4902,7 +4593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -4921,7 +4612,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -4938,7 +4629,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -4955,7 +4646,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -4985,22 +4676,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816ABE42-E1F6-4A05-B119-24E0099DA616}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5013,7 +4704,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -5036,7 +4727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -5055,7 +4746,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -5074,7 +4765,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -5091,7 +4782,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -5108,7 +4799,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75">
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -5133,7 +4824,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F4" location="项目!A1" display="Project_ID"/>
+    <hyperlink ref="F4" location="项目!A1" display="Project_ID" xr:uid="{1B5FF223-58FF-4146-991E-B842F8CAD00C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5141,24 +4832,24 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED63455-A287-40A3-B2B0-FD736394383F}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5171,7 +4862,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -5194,7 +4885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -5213,7 +4904,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -5232,7 +4923,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -5249,7 +4940,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -5266,7 +4957,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75">
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -5291,7 +4982,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F4" location="项目!A1" display="Project_ID"/>
+    <hyperlink ref="F4" location="项目!A1" display="Project_ID" xr:uid="{C7E69DA5-5DCB-47FC-AB9F-E5E8389CBDC7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Doc/数据库表结构说明.xlsx
+++ b/Doc/数据库表结构说明.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rock\source\repos\HouseSelection\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\46667\source\repos\HouseSelection\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EBA769C0-9305-451D-97BB-A138E08DCA73}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" firstSheet="4" activeTab="14" xr2:uid="{FEA1F325-EEC8-47FE-82EB-7325F5028A40}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" firstSheet="4" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="地区" sheetId="9" r:id="rId1"/>
@@ -33,7 +32,7 @@
     <sheet name="后台账号登陆记录表" sheetId="18" r:id="rId18"/>
     <sheet name="应用账号表" sheetId="19" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -771,10 +770,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>通知结果(1-有效电话;2-未接通;3-号码有误;4-非本人)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>IsConfirm</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -803,13 +798,17 @@
   </si>
   <si>
     <t>项目ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知结果(1-有效电话;2-关机;3-不在服务区;4-停机;5-无人接听;6-挂断;7-空号)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -951,9 +950,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
-    <cellStyle name="着色 1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="着色 1 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1264,7 +1263,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1393F8AB-CA1B-4B8E-8B47-9BDF08CCD9D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1378,7 +1377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CA8260-0DDF-48A3-86E1-5089904B98B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1775,11 +1774,11 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F4" location="项目!A1" display="Project_ID" xr:uid="{9963EF2D-179E-491F-8D20-AAE7C4FBB527}"/>
-    <hyperlink ref="F11" location="居室!A1" display="RoomType_ID" xr:uid="{47821033-B7E2-487D-8FA0-8399B5F318ED}"/>
-    <hyperlink ref="F6" location="房源分组!A1" display="HouseGroup_ID" xr:uid="{B50DE885-11AE-4DD2-9EC5-6F0CC699858B}"/>
-    <hyperlink ref="F20" location="楼盘信息!A1" display="HouseEstate_ID" xr:uid="{D8E9C009-E08E-42CF-9BE1-251F300D48AB}"/>
-    <hyperlink ref="F21" location="认购人!A1" display="Subscriber_ID" xr:uid="{FA742B32-EA6E-4773-A268-8D275290C52A}"/>
+    <hyperlink ref="F4" location="项目!A1" display="Project_ID"/>
+    <hyperlink ref="F11" location="居室!A1" display="RoomType_ID"/>
+    <hyperlink ref="F6" location="房源分组!A1" display="HouseGroup_ID"/>
+    <hyperlink ref="F20" location="楼盘信息!A1" display="HouseEstate_ID"/>
+    <hyperlink ref="F21" location="认购人!A1" display="Subscriber_ID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1787,7 +1786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7810AD4-5867-4F65-9747-6A4E5AF72F58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2058,7 +2057,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>131</v>
@@ -2067,7 +2066,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2076,8 +2075,8 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F4" location="项目分组!A1" display="ProjectGroup_ID" xr:uid="{7BD6AC0D-7212-40A0-82B2-D9DC01EB67CE}"/>
-    <hyperlink ref="F5" location="认购人参与项目关系!A1" display="SubscriberProjectMapping_ID" xr:uid="{1E5E7E8C-4590-4A15-BC5A-1C741AD74B77}"/>
+    <hyperlink ref="F4" location="项目分组!A1" display="ProjectGroup_ID"/>
+    <hyperlink ref="F5" location="认购人参与项目关系!A1" display="SubscriberProjectMapping_ID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2085,7 +2084,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07078727-5368-4B24-9C83-E3A5AA787F32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2294,7 +2293,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>131</v>
@@ -2303,7 +2302,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="4"/>
       <c r="G11" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2441,9 +2440,9 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F4" location="项目!A1" display="Project_ID" xr:uid="{D08C10E9-7932-4716-9172-F7E78D0920F3}"/>
-    <hyperlink ref="F5" location="房源信息!A1" display="House_ID" xr:uid="{FDF3D431-2858-4959-91D2-4BEBE44BF1F2}"/>
-    <hyperlink ref="F6" location="认购人!A1" display="Subscriber_ID" xr:uid="{22AE9934-1943-486B-B294-1E8595B40F8C}"/>
+    <hyperlink ref="F4" location="项目!A1" display="Project_ID"/>
+    <hyperlink ref="F5" location="房源信息!A1" display="House_ID"/>
+    <hyperlink ref="F6" location="认购人!A1" display="Subscriber_ID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2451,7 +2450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57A15C4-00F7-4245-99DC-353A41057D7D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2619,7 +2618,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F4" location="摇号结果!A1" display="ShakingNumberResult_ID" xr:uid="{1B24577A-C952-46E6-B947-1D897DCA7D02}"/>
+    <hyperlink ref="F4" location="摇号结果!A1" display="ShakingNumberResult_ID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2627,11 +2626,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F562E7-12E3-427E-8875-A118080E72C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2642,7 +2641,7 @@
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="71.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -2750,7 +2749,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -2795,7 +2794,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F4" location="摇号结果!A1" display="ShakingNumberResult_ID" xr:uid="{46FB9908-0860-4C2C-BE0B-1E4B3FEF5DBF}"/>
+    <hyperlink ref="F4" location="摇号结果!A1" display="ShakingNumberResult_ID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2803,10 +2802,10 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392F3D49-7C62-46CE-BF11-117EF1DCAF60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -2879,18 +2878,18 @@
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>204</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="4"/>
       <c r="F4" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -2969,14 +2968,15 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F4" location="项目!A1" display="Project_ID" xr:uid="{49B0D279-F13B-48C9-98EC-27E663350E5B}"/>
+    <hyperlink ref="F4" location="项目!A1" display="Project_ID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6255FE-CFC2-41EE-9E47-DBD24D09376A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3108,14 +3108,14 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F4" location="前台账号表!A1" display="FrontEndAccount_ID" xr:uid="{BECBA463-4F99-4D03-B1EA-DC9B5DBECC2B}"/>
+    <hyperlink ref="F4" location="前台账号表!A1" display="FrontEndAccount_ID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987C73B4-42C3-4976-915B-1435AE076B7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3267,7 +3267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A68EE4-84D1-4635-B6BC-4D3D470D22A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3399,7 +3399,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F4" location="后台账号表!A1" display="BackEndAccount_ID" xr:uid="{BE1597A7-7F86-4D50-AA6B-311FDCAD8E45}"/>
+    <hyperlink ref="F4" location="后台账号表!A1" display="BackEndAccount_ID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3407,7 +3407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5007B512-03F6-4FDB-8D61-AE0B8D7DDC83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3559,7 +3559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC98E902-DB2E-4845-B0A0-0F9A8B9C3C59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3814,7 +3814,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F5B5FD-96E3-4B89-952C-27FC70BB0A07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4016,7 +4016,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F4" location="认购人!A1" display="Subscriber_ID" xr:uid="{6AB6E376-97FE-4582-AC9E-23367DA3DFA3}"/>
+    <hyperlink ref="F4" location="认购人!A1" display="Subscriber_ID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4024,7 +4024,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4F1516-0F0D-4807-8CBE-8A6B6DB5739C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4175,7 +4175,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F4" location="项目!A1" display="Project_ID" xr:uid="{43AA46B3-6ADD-40C5-B938-DB9B058C358C}"/>
+    <hyperlink ref="F4" location="项目!A1" display="Project_ID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4183,7 +4183,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0893C854-8CB0-4481-94C7-2D1BD881E5E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4370,7 +4370,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F9" location="地区!A1" display="Area_ID" xr:uid="{41022FCA-A0EF-4834-AE49-04BA9247BC6E}"/>
+    <hyperlink ref="F9" location="地区!A1" display="Area_ID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4378,7 +4378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0278F26C-D911-401B-9E03-8C94A59B49C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4531,8 +4531,8 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F4" location="认购人!A1" display="Subscriber_ID" xr:uid="{19D8150D-C7D3-43F1-9E63-8FF1AFEA1178}"/>
-    <hyperlink ref="F5" location="项目!A1" display="Project_ID" xr:uid="{FCC5329E-0302-4C49-A29A-EF335CD37FCA}"/>
+    <hyperlink ref="F4" location="认购人!A1" display="Subscriber_ID"/>
+    <hyperlink ref="F5" location="项目!A1" display="Project_ID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4540,7 +4540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A9E669F-A9C0-4C14-81EF-1572AC5A6460}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4676,7 +4676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816ABE42-E1F6-4A05-B119-24E0099DA616}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4824,7 +4824,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F4" location="项目!A1" display="Project_ID" xr:uid="{1B5FF223-58FF-4146-991E-B842F8CAD00C}"/>
+    <hyperlink ref="F4" location="项目!A1" display="Project_ID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4832,7 +4832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED63455-A287-40A3-B2B0-FD736394383F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4982,7 +4982,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F4" location="项目!A1" display="Project_ID" xr:uid="{C7E69DA5-5DCB-47FC-AB9F-E5E8389CBDC7}"/>
+    <hyperlink ref="F4" location="项目!A1" display="Project_ID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Doc/数据库表结构说明.xlsx
+++ b/Doc/数据库表结构说明.xlsx
@@ -801,7 +801,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>通知结果(1-有效电话;2-关机;3-不在服务区;4-停机;5-无人接听;6-挂断;7-空号)</t>
+    <t>通知结果(1-有效电话;2-关机;3-不在服务区;4-停机;5-无人接听;6-挂断;7-空号;8-暂时不方便，稍后再打;9-非本人)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2630,7 +2630,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2641,7 +2641,7 @@
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="71.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="104" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">

--- a/Doc/数据库表结构说明.xlsx
+++ b/Doc/数据库表结构说明.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" firstSheet="4" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="地区" sheetId="9" r:id="rId1"/>
@@ -31,8 +31,9 @@
     <sheet name="后台账号表" sheetId="17" r:id="rId17"/>
     <sheet name="后台账号登陆记录表" sheetId="18" r:id="rId18"/>
     <sheet name="应用账号表" sheetId="19" r:id="rId19"/>
+    <sheet name="选房状态表" sheetId="20" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="211">
   <si>
     <t>表名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -802,6 +803,21 @@
   </si>
   <si>
     <t>通知结果(1-有效电话;2-关机;3-不在服务区;4-停机;5-无人接听;6-挂断;7-空号;8-暂时不方便，稍后再打;9-非本人)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectingHouseStatus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShakingNumberResultID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectStatus</t>
+  </si>
+  <si>
+    <t>选房状态(1-开始选房;2-确认选择;3-签字确认)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1266,8 +1282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2629,7 +2645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -3411,7 +3427,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="G7" sqref="A1:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3810,6 +3826,161 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Doc/数据库表结构说明.xlsx
+++ b/Doc/数据库表结构说明.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\46667\source\repos\HouseSelection\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HouseSelection\HouseSelection\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" firstSheet="2" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="地区" sheetId="9" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="216">
   <si>
     <t>表名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -819,17 +819,32 @@
   <si>
     <t>选房状态(1-开始选房;2-确认选择;3-签字确认)</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectHouseSequance</t>
+  </si>
+  <si>
+    <t>选房顺序号</t>
+  </si>
+  <si>
+    <t>IsAgent</t>
+  </si>
+  <si>
+    <t>BIT</t>
+  </si>
+  <si>
+    <t>是否为代理</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -837,14 +852,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -852,7 +867,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -861,7 +876,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -870,7 +885,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1282,18 +1297,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1306,7 +1321,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1329,7 +1344,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1348,7 +1363,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -1365,7 +1380,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -1398,18 +1413,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1422,7 +1437,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1445,7 +1460,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1464,7 +1479,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -1483,7 +1498,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -1500,7 +1515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -1519,7 +1534,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.75">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -1538,7 +1553,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -1555,7 +1570,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -1572,7 +1587,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -1589,7 +1604,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -1608,7 +1623,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -1625,7 +1640,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -1642,7 +1657,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -1659,7 +1674,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -1676,7 +1691,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -1693,7 +1708,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -1710,7 +1725,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -1727,7 +1742,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="15.75">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -1746,7 +1761,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -1765,7 +1780,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -1803,24 +1818,24 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:E21"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1833,7 +1848,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1856,7 +1871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1875,7 +1890,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -1894,7 +1909,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -1913,7 +1928,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -1930,7 +1945,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -1947,7 +1962,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -1964,7 +1979,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -1981,7 +1996,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -1998,7 +2013,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -2015,7 +2030,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -2032,7 +2047,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -2049,7 +2064,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15.75">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -2068,7 +2083,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -2083,6 +2098,40 @@
       <c r="F15" s="4"/>
       <c r="G15" s="3" t="s">
         <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="3" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2107,18 +2156,18 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2131,7 +2180,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2154,7 +2203,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -2173,7 +2222,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -2192,7 +2241,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -2211,7 +2260,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -2230,7 +2279,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -2247,7 +2296,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.75">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -2266,7 +2315,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15.75">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -2285,7 +2334,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15.75">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -2304,7 +2353,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15.75">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -2321,7 +2370,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -2338,7 +2387,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15.75">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -2357,7 +2406,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15.75">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -2376,7 +2425,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15.75">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -2395,7 +2444,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15.75">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -2414,7 +2463,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -2431,7 +2480,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15.75">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -2469,22 +2518,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2497,7 +2546,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2520,7 +2569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -2539,7 +2588,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -2558,7 +2607,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -2575,7 +2624,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -2592,7 +2641,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -2609,7 +2658,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.75">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -2649,18 +2698,18 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="104" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2673,7 +2722,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2696,7 +2745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -2715,7 +2764,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -2734,7 +2783,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -2751,7 +2800,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -2768,7 +2817,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2785,7 +2834,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.75">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2825,18 +2874,18 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2849,7 +2898,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2872,7 +2921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -2891,7 +2940,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>202</v>
@@ -2908,7 +2957,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -2925,7 +2974,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -2942,7 +2991,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -2959,7 +3008,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.75">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -2999,18 +3048,18 @@
       <selection activeCell="G6" sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3023,7 +3072,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3046,7 +3095,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -3065,7 +3114,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -3084,7 +3133,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -3101,7 +3150,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -3138,17 +3187,17 @@
       <selection activeCell="A7" sqref="A6:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3161,7 +3210,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3184,7 +3233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -3203,7 +3252,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -3220,7 +3269,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -3237,7 +3286,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -3254,7 +3303,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.75">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -3290,18 +3339,18 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3314,7 +3363,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3337,7 +3386,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -3356,7 +3405,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -3375,7 +3424,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -3392,7 +3441,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -3430,17 +3479,17 @@
       <selection activeCell="G7" sqref="A1:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3453,7 +3502,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3476,7 +3525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -3495,7 +3544,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -3512,7 +3561,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -3529,7 +3578,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -3546,7 +3595,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.75">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -3582,17 +3631,17 @@
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3605,7 +3654,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3628,7 +3677,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -3647,7 +3696,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -3664,7 +3713,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -3681,7 +3730,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -3698,7 +3747,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -3715,7 +3764,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -3732,7 +3781,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -3749,7 +3798,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -3766,7 +3815,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -3783,7 +3832,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -3800,7 +3849,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15.75">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -3837,18 +3886,18 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3861,7 +3910,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3884,7 +3933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -3903,7 +3952,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -3922,7 +3971,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -3939,7 +3988,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -3956,7 +4005,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.75">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -3992,18 +4041,18 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4016,7 +4065,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4039,7 +4088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -4058,7 +4107,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -4077,7 +4126,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -4094,7 +4143,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -4111,7 +4160,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -4128,7 +4177,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -4145,7 +4194,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -4162,7 +4211,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15.75">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -4202,18 +4251,18 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4226,7 +4275,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4249,7 +4298,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -4268,7 +4317,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -4287,7 +4336,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -4304,7 +4353,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -4321,7 +4370,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.75">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -4361,18 +4410,18 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4385,7 +4434,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4408,7 +4457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -4427,7 +4476,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -4444,7 +4493,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -4461,7 +4510,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.75">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -4480,7 +4529,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -4497,7 +4546,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.75">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -4516,7 +4565,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -4556,18 +4605,18 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4580,7 +4629,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4603,7 +4652,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -4622,7 +4671,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -4641,7 +4690,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -4660,7 +4709,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -4677,7 +4726,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.75">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -4718,17 +4767,17 @@
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4741,7 +4790,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4764,7 +4813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -4783,7 +4832,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -4800,7 +4849,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -4817,7 +4866,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.75">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -4854,15 +4903,15 @@
       <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="26.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4875,7 +4924,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4898,7 +4947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -4917,7 +4966,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -4936,7 +4985,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -4953,7 +5002,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -4970,7 +5019,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.75">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -5010,17 +5059,17 @@
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5033,7 +5082,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -5056,7 +5105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -5075,7 +5124,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -5094,7 +5143,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -5111,7 +5160,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -5128,7 +5177,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.75">
       <c r="A7" s="4">
         <v>5</v>
       </c>
